--- a/SchemaDispositifAide.xlsx
+++ b/SchemaDispositifAide.xlsx
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Date d'ouverture de l'aide</t>
   </si>
   <si>
-    <t xml:space="preserve">Dates de relèves</t>
+    <t xml:space="preserve">Dates de relève</t>
   </si>
   <si>
     <t xml:space="preserve">Date de cloture de l’aide</t>
@@ -209,13 +209,13 @@
     <t xml:space="preserve">description_longue</t>
   </si>
   <si>
-    <t xml:space="preserve">programme_aides</t>
+    <t xml:space="preserve">programmes_aide</t>
   </si>
   <si>
-    <t xml:space="preserve">porteur_aide</t>
+    <t xml:space="preserve">porteurs_aide</t>
   </si>
   <si>
-    <t xml:space="preserve">porteur_siren</t>
+    <t xml:space="preserve">porteurs_siren</t>
   </si>
   <si>
     <t xml:space="preserve">beneficiaires_aide</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">date_ouverture</t>
   </si>
   <si>
-    <t xml:space="preserve">date_releve_intermediaire</t>
+    <t xml:space="preserve">dates_releve_intermediaire</t>
   </si>
   <si>
     <t xml:space="preserve">date_cloture</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">eligibilite_autre</t>
   </si>
   <si>
-    <t xml:space="preserve">date_mise_a_jour</t>
+    <t xml:space="preserve">date_mise_a_jour_aide</t>
   </si>
   <si>
     <t xml:space="preserve">Format attendu</t>
@@ -490,7 +490,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Programme(s) auquel se réfère l'aide - facultatif. Si aucun programme, ne pas remplir ce champs. 
-S'il y a plusieurs programmes, mettre un point virgule sans espace entre les différents programmes.
+S'il y a plusieurs programmes, mettre unmettre un pipe ( | ) sans espace entre les différents programmes.
 </t>
     </r>
     <r>
@@ -501,7 +501,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ex : France 2030;Fonds social européen (FSE);Fonds Vert</t>
+      <t xml:space="preserve">Ex : France 2030|Fonds social européen (FSE)|Fonds Vert</t>
     </r>
   </si>
   <si>
@@ -515,7 +515,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Nom du.des porteur.s de l'aide. 
-S'il y a plusieurs porteurs, mettre un point virgule sans espace entre les différents porteurs.
+S'il y a plusieurs porteurs, mettre un pipe ( | ) sans espace entre les différents porteurs.
  Le premier porteur est considérer le porteur/opérateur principal de l'aide
 </t>
     </r>
@@ -528,7 +528,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-Ex : ADEME;Région Grand Est</t>
+Ex : ADEME|Région Grand Est</t>
     </r>
   </si>
   <si>
@@ -541,7 +541,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Numéro SIREN du/des porteur(s) de l'aide. S'il y a plusieurs porteurs, mettre un point virgule sans espace entre les différents porteurs.
+      <t xml:space="preserve">Numéro SIREN du/des porteur(s) de l'aide. S'il y a plusieurs porteurs, mettre un pipe (|) sans espace entre les différents porteurs.
 </t>
     </r>
     <r>
@@ -553,7 +553,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-Ex: 385290309;483790069</t>
+Ex: 385290309|483790069</t>
     </r>
   </si>
   <si>
@@ -599,7 +599,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">S'il y a plusieurs bénéficiaires, mettre un point virgule sans espace entre les différents bénéficiaires.
+      <t xml:space="preserve">S'il y a plusieurs bénéficiaires, mettre un pipe ( | ) sans espace entre les différents bénéficiaires.
 </t>
     </r>
     <r>
@@ -610,7 +610,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ex : Communes;EPCI à fiscalité propre;Associations;Entreprises privées;Entreprises publiques locales (Sem, Spl, SemOp)</t>
+      <t xml:space="preserve">Ex : Communes|EPCI à fiscalité propre|Associations|Entreprises privées|Entreprises publiques locales (Sem, Spl, SemOp)</t>
     </r>
   </si>
   <si>
@@ -690,7 +690,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-S'il y a plusieurs types d'aides, mettre un point virgule sans espace entre les différents types d'aides.
+S'il y a plusieurs types d'aides, mettre un pipe ( | ) sans espace entre les différents types d'aides.
 </t>
     </r>
     <r>
@@ -701,7 +701,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ex : Subvention;Ingénierie financière</t>
+      <t xml:space="preserve">Ex : Subvention|Ingénierie financière</t>
     </r>
   </si>
   <si>
@@ -794,7 +794,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Lien avec un ou plusieurs projets de référence associés à ce dispositif. Mettre un point-virgule sans espace entre les différents projets.
+      <t xml:space="preserve">Lien avec un ou plusieurs projets de référence associés à ce dispositif. Mettre un pipe sans espace entre les différents projets.
 </t>
     </r>
     <r>
@@ -805,7 +805,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ex : Bilan Ges;Réduction des emballages;Plan action dechets</t>
+      <t xml:space="preserve">Ex : Bilan Ges|Réduction des emballages|Plan action dechets</t>
     </r>
   </si>
   <si>
@@ -842,7 +842,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Thématique et sous-thématique de l'aide. S'il y a plusieurs thématiques, mettre un point-virgule sans espace entre les différentes thématiques. Pour décrire les thématiques et sous-thématiques, mettre un signe supérieur &gt; entre les thématiques et sous-thématiques
+      <t xml:space="preserve">Thématique et sous-thématique de l'aide. S'il y a plusieurs thématiques, mettre un pipe sans espace entre les différentes thématiques. Pour décrire les thématiques et sous-thématiques, mettre un signe supérieur &gt; entre les thématiques et sous-thématiques
 </t>
     </r>
     <r>
@@ -854,7 +854,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-Ex : Thématique A &gt; Sous-Thématique AA &gt; Sous-Thématique AAA;Thématique B &gt; Sous-Thématique BB</t>
+Ex : Thématique A &gt; Sous-Thématique AA &gt; Sous-Thématique AAA|Thématique B &gt; Sous-Thématique BB</t>
     </r>
   </si>
   <si>
@@ -892,7 +892,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Au format ISO 8601
-Séparer par des points virgules sans espace si multiples dates de relève
+Séparer par des pipes sans espace si multiples dates de relève
 </t>
     </r>
     <r>
@@ -903,7 +903,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ex : 2025-10-15T15:00:00Z;2025-02-16T15:00:00Z</t>
+      <t xml:space="preserve">Ex : 2025-10-15T15:00:00Z|2025-02-16T15:00:00Z</t>
     </r>
   </si>
   <si>
@@ -980,7 +980,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Liens au format Markdown : [description](lien) séparés par des points virgules  </t>
+    <t xml:space="preserve">Liens au format Markdown : [description](lien) séparés par des pipes</t>
   </si>
   <si>
     <r>
@@ -1112,7 +1112,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Couverture géographique du dispositif. Champs à écrire en utilisant le formalisme du Code Officiel Géographique du COG : https://www.insee.fr/fr/information/5230987. Séparer chaque code COG par des points virgules
+      <t xml:space="preserve">Couverture géographique du dispositif. Champs à écrire en utilisant le formalisme du Code Officiel Géographique du COG : https://www.insee.fr/fr/information/5230987. Séparer chaque code COG par des pipes
 </t>
     </r>
     <r>
@@ -1123,7 +1123,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ex : PAYS-99100 pour la France entière OU REG-84;DEP-05 pour la région Auvergne-Rhône-Alpes et le département des Hautes-Alpes</t>
+      <t xml:space="preserve">Ex : PAYS-99100 pour la France entière OU REG-84|DEP-05 pour la région Auvergne-Rhône-Alpes et le département des Hautes-Alpes</t>
     </r>
   </si>
   <si>
@@ -1137,7 +1137,28 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Couverture géographique exclues du dispositif d'aide.
- Champs à écrire en utilisant le formalisme du Code Officiel Géographique du COG : https://www.insee.fr/fr/information/5230987. Séparer chaque code COG par des points virgules. Cette propriété a précédence sur les \"eligibilite_geographique\" s'il y a recouvrement.
+ Champs à écrire en utilisant le formalisme du Code Officiel Géographique du COG : https://www.insee.fr/fr/information/5230987. Séparer chaque code COG par des </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pipes</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Cette propriété a précédence sur les \"eligibilite_geographique\" s'il y a recouvrement.
 </t>
     </r>
     <r>
@@ -1148,7 +1169,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ex : REG-84;DEP-05 pour la région Auvergne-Rhône-Alpes et le département des Hautes-Alpes</t>
+      <t xml:space="preserve">Ex : REG-84|DEP-05 pour la région Auvergne-Rhône-Alpes et le département des Hautes-Alpes</t>
     </r>
   </si>
   <si>
@@ -1185,8 +1206,29 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Couverture sectorielle du dispositif identifiés via les codes NAF - Nomenclature d'Activités Française. Peut être n'importe niveau de code NAF (section, division, groupe etc.). Séparér chaque code NAF par des points virgules. 
-Par défaut il est possible d'écrire A; B; C; D; E; F; G; H; I; J; K; L; M; N; O; P; Q; R; S; T; U - correspondant à toutes les sections NAF.
+      <t xml:space="preserve">Couverture sectorielle du dispositif identifiés via les codes NAF - Nomenclature d'Activités Française. Peut être n'importe niveau de code NAF (section, division, groupe etc.). Séparér chaque code NAF par des </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pipes</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. 
+Par défaut il est possible d'écrire A|B|C|D|E|F|G|H|I|J|K|L|M|N|O|P|Q|R|S|T|U correspondant à toutes les sections NAF.
 </t>
     </r>
     <r>
@@ -1198,7 +1240,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-Ex : A;55.20Z</t>
+Ex : A|55.20Z</t>
     </r>
   </si>
   <si>
@@ -1211,7 +1253,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Identifiés via leurs codes NAF. Peut être n'importe quel niveau de code NAF (section, division, groupe etc.). Séparér chaque code NAF par des points virgules. Cette propriété a précédence sur le champ précédent s'il y a recouvrement.
+      <t xml:space="preserve">Identifiés via leurs codes NAF. Peut être n'importe quel niveau de code NAF (section, division, groupe etc.). Séparér chaque code NAF par des pipes. Cette propriété a précédence sur le champ précédent s'il y a recouvrement.
  Par exemple, si "</t>
     </r>
     <r>
@@ -1267,7 +1309,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ex : 02;09.10Z</t>
+      <t xml:space="preserve">Ex : 02|09.10Z</t>
     </r>
   </si>
   <si>
@@ -1509,8 +1551,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Date de mise à jour du descriptif de l’aide
-Au format ISO 8601
+      <t xml:space="preserve">Dernière date de mise à jour de l’aide dans ce schéma de données, au format ISO 8601
 </t>
     </r>
     <r>
@@ -1533,7 +1574,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1646,6 +1687,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1891,11 +1939,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2163,8 +2211,8 @@
   </sheetPr>
   <dimension ref="A1:AV1010"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM12" activeCellId="0" sqref="AM12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2213,6 +2261,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="37.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="19.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SchemaDispositifAide.xlsx
+++ b/SchemaDispositifAide.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Porteur.s de l'aide*</t>
   </si>
   <si>
-    <t xml:space="preserve">SIREN du porteur</t>
+    <t xml:space="preserve">SIREN du.es porteur.s</t>
   </si>
   <si>
     <t xml:space="preserve">Bénéficiaire.s de l'aide*</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">duree_aide</t>
   </si>
   <si>
-    <t xml:space="preserve">projet_reference</t>
+    <t xml:space="preserve">projets_reference</t>
   </si>
   <si>
     <t xml:space="preserve">exemple_projet</t>
@@ -374,7 +374,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-Titre court, nom commercial du dispositif. Si pas de titre commercial clairement identifé, un titre générique du type \"Dispositif { opérateur principal }\" peut être utilisé
+Titre court, nom commercial du dispositif. Si pas de titre commercial clairement identifé, un titre générique du type `Dispositif { opérateur principal }` peut être utilisé
 </t>
     </r>
     <r>
@@ -404,8 +404,30 @@
 - distinguer les offres les unes des autres.
 Formulation :
 - 6 à 15 mots.
-- La promesse commence par un verbe à l'impératif\n- rédigée sous l'angle du bénéfice utilisateur, s'adressant à lui par le pluriel de politesse \"vous\" \"votre entreprise\" 
-- pas de point à la fin de la promesse (sauf point d'exclamation)
+- La promesse commence par un verbe à l'impératif
+- rédigée sous l'angle du bénéfice utilisateur, s'adressant à lui par le pluriel de politesse </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">`vous` `votre entreprise`
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- pas de point à la fin de la promesse (sauf point d'exclamation)
 Texte limité à 180 caractères
 </t>
     </r>
@@ -421,32 +443,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Description courte de l'objectif du dispositif. Qu'est-ce que l'entreprise gagne à bénéficier de cette aide  ? 
+    <t xml:space="preserve">Description courte de l'objectif du dispositif. Qu'est-ce que l'entreprise gagne à bénéficier de cette aide  ? 
 Formulation : 
 - 40 à 60 mots 
-- rédigés sous l'angle du bénéfice utilisateur, s'adressant à lui par le pluriel de politesse "vous"/"votre entreprise"
+- rédigés sous l'angle du bénéfice utilisateur, s'adressant à lui par le pluriel de politesse `vous` `votre entreprise`
 - La description courte est ponctuée par un point.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ex : L’ADEME soutient financièrement les entreprises qui souhaitent questionner leur modèle économique pour identifier un nouveau modèle compatible avec une trajectoire bas carbone. Vous serez accompagné avec la méthode ACT Pas à Pas (Assessing Low Carbon Transition), une méthode structurante, progressive et sur le long terme qui aide les entreprises à réduire significativement leurs émissions de gaz à effet de serre.</t>
-    </r>
+Ex : L’ADEME soutient financièrement les entreprises qui souhaitent questionner leur modèle économique pour identifier un nouveau modèle compatible avec une trajectoire bas carbone. Vous serez accompagné avec la méthode ACT Pas à Pas (Assessing Low Carbon Transition), une méthode structurante, progressive et sur le long terme qui aide les entreprises à réduire significativement leurs émissions de gaz à effet de serre.</t>
   </si>
   <si>
     <r>
@@ -516,7 +518,7 @@
       </rPr>
       <t xml:space="preserve">Nom du.des porteur.s de l'aide. 
 S'il y a plusieurs porteurs, mettre un pipe ( | ) sans espace entre les différents porteurs.
- Le premier porteur est considérer le porteur/opérateur principal de l'aide
+ Le premier porteur est considéré comme le porteur/opérateur principal de l'aide
 </t>
     </r>
     <r>
@@ -1137,28 +1139,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Couverture géographique exclues du dispositif d'aide.
- Champs à écrire en utilisant le formalisme du Code Officiel Géographique du COG : https://www.insee.fr/fr/information/5230987. Séparer chaque code COG par des </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">pipes</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Cette propriété a précédence sur les \"eligibilite_geographique\" s'il y a recouvrement.
+ Champs à écrire en utilisant le formalisme du Code Officiel Géographique du COG : https://www.insee.fr/fr/information/5230987. Séparer chaque code COG par des pipes. Cette propriété a précédence sur les \"eligibilite_geographique\" s'il y a recouvrement.
 </t>
     </r>
     <r>
@@ -1215,6 +1196,7 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">pipes</t>
     </r>
@@ -1673,6 +1655,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1687,13 +1676,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2211,8 +2193,8 @@
   </sheetPr>
   <dimension ref="A1:AV1010"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2261,7 +2243,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="37.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="19.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="19.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
